--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1205_INFO.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1205_INFO.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA36BF2F-7ED3-4D7E-BA07-90CC0F9A6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49B385A-E9F2-4D5A-80C1-DF78D75B49B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1915711_PDF" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956592_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45673</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.5727430555555556</v>
+        <v>0.5889699074074074</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1080,16 +1080,16 @@
         <v>45085</v>
       </c>
       <c r="K11">
-        <v>-4310</v>
+        <v>-12310</v>
       </c>
       <c r="M11">
-        <v>1856.64</v>
+        <v>-5654.09</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="R11">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -1112,7 +1112,7 @@
         <v>22</v>
       </c>
       <c r="R12">
-        <v>1300</v>
+        <v>1359</v>
       </c>
       <c r="T12">
         <v>6</v>
